--- a/motors_veritas.xlsx
+++ b/motors_veritas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurfre/github/maxiv_links_-_IPs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC9DA82-24A4-794A-8D91-9547D7344F1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB5E064-491E-DC40-B936-9F85355130A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="-2840" windowWidth="38400" windowHeight="21600" tabRatio="621" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="874">
   <si>
     <t>Date</t>
   </si>
@@ -62229,10 +62229,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
@@ -62252,7 +62252,7 @@
     <col min="13" max="16384" width="9.1640625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="262" customFormat="1" ht="24">
+    <row r="1" spans="1:18" s="262" customFormat="1" ht="24">
       <c r="A1" s="170" t="s">
         <v>596</v>
       </c>
@@ -62298,8 +62298,11 @@
       <c r="O1" s="367" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="183">
         <f>Data!$A2</f>
         <v>1</v>
@@ -62353,7 +62356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" s="183">
         <f>Data!$A3</f>
         <v>2</v>
@@ -62407,7 +62410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" s="183">
         <f>Data!$A4</f>
         <v>3</v>
@@ -62461,7 +62464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" s="183">
         <f>Data!$A5</f>
         <v>4</v>
@@ -62515,7 +62518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="A6" s="183">
         <f>Data!$A6</f>
         <v>5</v>
@@ -62569,7 +62572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="A7" s="183">
         <f>Data!$A7</f>
         <v>6</v>
@@ -62623,7 +62626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18">
       <c r="A8" s="183">
         <f>Data!$A8</f>
         <v>7</v>
@@ -62677,7 +62680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:18">
       <c r="A9" s="183">
         <f>Data!$A9</f>
         <v>8</v>
@@ -62731,7 +62734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="268" customFormat="1">
+    <row r="10" spans="1:18" s="268" customFormat="1">
       <c r="A10" s="186">
         <f>Data!$A10</f>
         <v>0</v>
@@ -62773,7 +62776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="A11" s="183">
         <f>Data!$A11</f>
         <v>11</v>
@@ -62827,7 +62830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:18">
       <c r="A12" s="183">
         <f>Data!$A12</f>
         <v>12</v>
@@ -62881,7 +62884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="A13" s="183">
         <f>Data!$A13</f>
         <v>13</v>
@@ -62935,7 +62938,7 @@
         <v>93.644801000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:18">
       <c r="A14" s="183">
         <f>Data!$A14</f>
         <v>14</v>
@@ -62989,7 +62992,7 @@
         <v>36.322434999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:18">
       <c r="A15" s="183">
         <f>Data!$A15</f>
         <v>15</v>
@@ -63043,7 +63046,7 @@
         <v>419.60528900000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:18">
       <c r="A16" s="183">
         <f>Data!$A16</f>
         <v>16</v>
@@ -63097,7 +63100,7 @@
         <v>99.23569071499999</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:18">
       <c r="A17" s="183">
         <f>Data!$A17</f>
         <v>17</v>
@@ -63151,7 +63154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:18">
       <c r="A18" s="183">
         <f>Data!$A18</f>
         <v>18</v>
@@ -63205,7 +63208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="268" customFormat="1">
+    <row r="19" spans="1:18" s="268" customFormat="1">
       <c r="A19" s="186">
         <f>Data!$A19</f>
         <v>0</v>
@@ -63221,7 +63224,7 @@
       <c r="M19" s="266"/>
       <c r="N19" s="266"/>
     </row>
-    <row r="20" spans="1:14" s="268" customFormat="1">
+    <row r="20" spans="1:18" s="268" customFormat="1">
       <c r="A20" s="186">
         <f>Data!$A20</f>
         <v>0</v>
@@ -63237,7 +63240,7 @@
       <c r="M20" s="266"/>
       <c r="N20" s="266"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:18">
       <c r="A21" s="183">
         <f>Data!$A21</f>
         <v>21</v>
@@ -63262,9 +63265,7 @@
       <c r="G21" s="93" t="s">
         <v>762</v>
       </c>
-      <c r="H21" s="183" t="s">
-        <v>846</v>
-      </c>
+      <c r="H21" s="263"/>
       <c r="I21" s="379" t="str">
         <f>Data!$E21</f>
         <v>a_gr_baff_vb</v>
@@ -63290,7 +63291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:18">
       <c r="A22" s="183">
         <f>Data!$A22</f>
         <v>22</v>
@@ -63343,8 +63344,11 @@
         <f>MAX(Tests!$BV22,Tests!$BW22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="R22" s="93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="183">
         <f>Data!$A23</f>
         <v>23</v>
@@ -63398,7 +63402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:18">
       <c r="A24" s="183">
         <f>Data!$A24</f>
         <v>24</v>
@@ -63452,7 +63456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:18">
       <c r="A25" s="183">
         <f>Data!$A25</f>
         <v>25</v>
@@ -63506,7 +63510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:18">
       <c r="A26" s="183">
         <f>Data!$A26</f>
         <v>26</v>
@@ -63560,7 +63564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:18">
       <c r="A27" s="183">
         <f>Data!$A27</f>
         <v>27</v>
@@ -63614,7 +63618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:18">
       <c r="A28" s="183">
         <f>Data!$A28</f>
         <v>28</v>
@@ -63668,7 +63672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="268" customFormat="1">
+    <row r="29" spans="1:18" s="268" customFormat="1">
       <c r="A29" s="186">
         <f>Data!$A29</f>
         <v>0</v>
@@ -63684,7 +63688,7 @@
       <c r="M29" s="266"/>
       <c r="N29" s="266"/>
     </row>
-    <row r="30" spans="1:14" s="268" customFormat="1">
+    <row r="30" spans="1:18" s="268" customFormat="1">
       <c r="A30" s="186">
         <f>Data!$A30</f>
         <v>0</v>
@@ -63700,7 +63704,7 @@
       <c r="M30" s="266"/>
       <c r="N30" s="266"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:18">
       <c r="A31" s="183">
         <f>Data!$A31</f>
         <v>31</v>
@@ -63754,7 +63758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:18">
       <c r="A32" s="183">
         <f>Data!$A32</f>
         <v>32</v>

--- a/motors_veritas.xlsx
+++ b/motors_veritas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurfre/github/maxiv_links_-_IPs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB5E064-491E-DC40-B936-9F85355130A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC4E10B-ED24-C246-9551-F5041AD659D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="-2840" windowWidth="38400" windowHeight="21600" tabRatio="621" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="874">
   <si>
     <t>Date</t>
   </si>
@@ -62229,10 +62229,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
@@ -62252,7 +62252,7 @@
     <col min="13" max="16384" width="9.1640625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="262" customFormat="1" ht="24">
+    <row r="1" spans="1:15" s="262" customFormat="1" ht="24">
       <c r="A1" s="170" t="s">
         <v>596</v>
       </c>
@@ -62298,11 +62298,8 @@
       <c r="O1" s="367" t="s">
         <v>535</v>
       </c>
-      <c r="R1" s="262" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="183">
         <f>Data!$A2</f>
         <v>1</v>
@@ -62356,7 +62353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:15">
       <c r="A3" s="183">
         <f>Data!$A3</f>
         <v>2</v>
@@ -62410,7 +62407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:15">
       <c r="A4" s="183">
         <f>Data!$A4</f>
         <v>3</v>
@@ -62464,7 +62461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:15">
       <c r="A5" s="183">
         <f>Data!$A5</f>
         <v>4</v>
@@ -62518,7 +62515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:15">
       <c r="A6" s="183">
         <f>Data!$A6</f>
         <v>5</v>
@@ -62572,7 +62569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:15">
       <c r="A7" s="183">
         <f>Data!$A7</f>
         <v>6</v>
@@ -62626,7 +62623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:15">
       <c r="A8" s="183">
         <f>Data!$A8</f>
         <v>7</v>
@@ -62680,7 +62677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:15">
       <c r="A9" s="183">
         <f>Data!$A9</f>
         <v>8</v>
@@ -62734,7 +62731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="268" customFormat="1">
+    <row r="10" spans="1:15" s="268" customFormat="1">
       <c r="A10" s="186">
         <f>Data!$A10</f>
         <v>0</v>
@@ -62776,7 +62773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:15">
       <c r="A11" s="183">
         <f>Data!$A11</f>
         <v>11</v>
@@ -62830,7 +62827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:15">
       <c r="A12" s="183">
         <f>Data!$A12</f>
         <v>12</v>
@@ -62884,7 +62881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:15">
       <c r="A13" s="183">
         <f>Data!$A13</f>
         <v>13</v>
@@ -62938,7 +62935,7 @@
         <v>93.644801000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:15">
       <c r="A14" s="183">
         <f>Data!$A14</f>
         <v>14</v>
@@ -62992,7 +62989,7 @@
         <v>36.322434999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:15">
       <c r="A15" s="183">
         <f>Data!$A15</f>
         <v>15</v>
@@ -63046,7 +63043,7 @@
         <v>419.60528900000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:15">
       <c r="A16" s="183">
         <f>Data!$A16</f>
         <v>16</v>
@@ -63100,7 +63097,7 @@
         <v>99.23569071499999</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:15">
       <c r="A17" s="183">
         <f>Data!$A17</f>
         <v>17</v>
@@ -63154,7 +63151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:15">
       <c r="A18" s="183">
         <f>Data!$A18</f>
         <v>18</v>
@@ -63208,7 +63205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="268" customFormat="1">
+    <row r="19" spans="1:15" s="268" customFormat="1">
       <c r="A19" s="186">
         <f>Data!$A19</f>
         <v>0</v>
@@ -63224,7 +63221,7 @@
       <c r="M19" s="266"/>
       <c r="N19" s="266"/>
     </row>
-    <row r="20" spans="1:18" s="268" customFormat="1">
+    <row r="20" spans="1:15" s="268" customFormat="1">
       <c r="A20" s="186">
         <f>Data!$A20</f>
         <v>0</v>
@@ -63240,7 +63237,7 @@
       <c r="M20" s="266"/>
       <c r="N20" s="266"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:15">
       <c r="A21" s="183">
         <f>Data!$A21</f>
         <v>21</v>
@@ -63291,7 +63288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:15">
       <c r="A22" s="183">
         <f>Data!$A22</f>
         <v>22</v>
@@ -63344,11 +63341,8 @@
         <f>MAX(Tests!$BV22,Tests!$BW22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="183">
         <f>Data!$A23</f>
         <v>23</v>
@@ -63401,8 +63395,11 @@
         <f>MAX(Tests!$BV23,Tests!$BW23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="O23" s="93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="183">
         <f>Data!$A24</f>
         <v>24</v>
@@ -63456,7 +63453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:15">
       <c r="A25" s="183">
         <f>Data!$A25</f>
         <v>25</v>
@@ -63510,7 +63507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:15">
       <c r="A26" s="183">
         <f>Data!$A26</f>
         <v>26</v>
@@ -63564,7 +63561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:15">
       <c r="A27" s="183">
         <f>Data!$A27</f>
         <v>27</v>
@@ -63618,7 +63615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:15">
       <c r="A28" s="183">
         <f>Data!$A28</f>
         <v>28</v>
@@ -63672,7 +63669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="268" customFormat="1">
+    <row r="29" spans="1:15" s="268" customFormat="1">
       <c r="A29" s="186">
         <f>Data!$A29</f>
         <v>0</v>
@@ -63688,7 +63685,7 @@
       <c r="M29" s="266"/>
       <c r="N29" s="266"/>
     </row>
-    <row r="30" spans="1:18" s="268" customFormat="1">
+    <row r="30" spans="1:15" s="268" customFormat="1">
       <c r="A30" s="186">
         <f>Data!$A30</f>
         <v>0</v>
@@ -63704,7 +63701,7 @@
       <c r="M30" s="266"/>
       <c r="N30" s="266"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:15">
       <c r="A31" s="183">
         <f>Data!$A31</f>
         <v>31</v>
@@ -63758,7 +63755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:15">
       <c r="A32" s="183">
         <f>Data!$A32</f>
         <v>32</v>

--- a/motors_veritas.xlsx
+++ b/motors_veritas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurfre/github/maxiv_links_-_IPs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC4E10B-ED24-C246-9551-F5041AD659D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBC3806-297E-1D43-A3A1-CDA53CC31928}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="-2840" windowWidth="38400" windowHeight="21600" tabRatio="621" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="874">
   <si>
     <t>Date</t>
   </si>
@@ -62231,8 +62231,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
@@ -63097,7 +63097,7 @@
         <v>99.23569071499999</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:14">
       <c r="A17" s="183">
         <f>Data!$A17</f>
         <v>17</v>
@@ -63151,7 +63151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:14">
       <c r="A18" s="183">
         <f>Data!$A18</f>
         <v>18</v>
@@ -63205,7 +63205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="268" customFormat="1">
+    <row r="19" spans="1:14" s="268" customFormat="1">
       <c r="A19" s="186">
         <f>Data!$A19</f>
         <v>0</v>
@@ -63221,7 +63221,7 @@
       <c r="M19" s="266"/>
       <c r="N19" s="266"/>
     </row>
-    <row r="20" spans="1:15" s="268" customFormat="1">
+    <row r="20" spans="1:14" s="268" customFormat="1">
       <c r="A20" s="186">
         <f>Data!$A20</f>
         <v>0</v>
@@ -63237,7 +63237,7 @@
       <c r="M20" s="266"/>
       <c r="N20" s="266"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:14">
       <c r="A21" s="183">
         <f>Data!$A21</f>
         <v>21</v>
@@ -63288,7 +63288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:14">
       <c r="A22" s="183">
         <f>Data!$A22</f>
         <v>22</v>
@@ -63342,7 +63342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:14">
       <c r="A23" s="183">
         <f>Data!$A23</f>
         <v>23</v>
@@ -63395,11 +63395,8 @@
         <f>MAX(Tests!$BV23,Tests!$BW23)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="93" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="183">
         <f>Data!$A24</f>
         <v>24</v>
@@ -63453,7 +63450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:14">
       <c r="A25" s="183">
         <f>Data!$A25</f>
         <v>25</v>
@@ -63507,7 +63504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:14">
       <c r="A26" s="183">
         <f>Data!$A26</f>
         <v>26</v>
@@ -63561,7 +63558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:14">
       <c r="A27" s="183">
         <f>Data!$A27</f>
         <v>27</v>
@@ -63615,7 +63612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:14">
       <c r="A28" s="183">
         <f>Data!$A28</f>
         <v>28</v>
@@ -63669,7 +63666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="268" customFormat="1">
+    <row r="29" spans="1:14" s="268" customFormat="1">
       <c r="A29" s="186">
         <f>Data!$A29</f>
         <v>0</v>
@@ -63685,7 +63682,7 @@
       <c r="M29" s="266"/>
       <c r="N29" s="266"/>
     </row>
-    <row r="30" spans="1:15" s="268" customFormat="1">
+    <row r="30" spans="1:14" s="268" customFormat="1">
       <c r="A30" s="186">
         <f>Data!$A30</f>
         <v>0</v>
@@ -63701,7 +63698,7 @@
       <c r="M30" s="266"/>
       <c r="N30" s="266"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:14">
       <c r="A31" s="183">
         <f>Data!$A31</f>
         <v>31</v>
@@ -63755,7 +63752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:14">
       <c r="A32" s="183">
         <f>Data!$A32</f>
         <v>32</v>
